--- a/report.xlsx
+++ b/report.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="229">
-  <si>
-    <t>January 2017</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="230">
+  <si>
+    <t>February 2017</t>
   </si>
   <si>
     <t>saeccffrgeaa Gary Tsai 2016-08-26 16:50:26.807392</t>
@@ -696,6 +696,9 @@
   </si>
   <si>
     <t xml:space="preserve">31 18:57&gt;&gt;&gt; 8FD8ADBD20    </t>
+  </si>
+  <si>
+    <t>13 18:45&gt;&gt;&gt; 4FD889D140   Freddy Velez</t>
   </si>
   <si>
     <t>Month</t>
@@ -786,28 +789,28 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="5"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="3"/>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle name="Normal 17" xfId="1"/>
-    <cellStyle name="Normal 5" xfId="2"/>
-    <cellStyle name="Normal 12" xfId="3"/>
-    <cellStyle name="Normal 11" xfId="4"/>
-    <cellStyle name="Normal 10" xfId="5"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 6" xfId="2"/>
+    <cellStyle name="Normal 8" xfId="3"/>
+    <cellStyle name="Normal 7" xfId="4"/>
+    <cellStyle builtinId="0" name="Normal" xfId="5"/>
     <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="6"/>
-    <cellStyle name="Normal 6" xfId="7"/>
-    <cellStyle name="Normal 13" xfId="8"/>
-    <cellStyle name="Normal 4" xfId="9"/>
-    <cellStyle name="Normal 8" xfId="10"/>
-    <cellStyle name="Normal 3" xfId="11"/>
-    <cellStyle name="Normal 2" xfId="12"/>
+    <cellStyle name="Normal 3" xfId="7"/>
+    <cellStyle name="Normal 11" xfId="8"/>
+    <cellStyle name="Normal 10" xfId="9"/>
+    <cellStyle name="Normal 13" xfId="10"/>
+    <cellStyle name="Normal 12" xfId="11"/>
+    <cellStyle name="Normal 15" xfId="12"/>
     <cellStyle name="Normal 14" xfId="13"/>
-    <cellStyle name="Normal 15" xfId="14"/>
+    <cellStyle name="Normal 17" xfId="14"/>
     <cellStyle name="Normal 16" xfId="15"/>
-    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="16"/>
-    <cellStyle name="Normal 9" xfId="17"/>
-    <cellStyle name="Normal 7" xfId="18"/>
+    <cellStyle name="Normal 9" xfId="16"/>
+    <cellStyle name="Normal 5" xfId="17"/>
+    <cellStyle name="Normal 4" xfId="18"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
@@ -1140,10 +1143,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A270"/>
+  <dimension ref="A1:A271"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A264" workbookViewId="0">
+      <selection activeCell="B278" sqref="B278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2500,6 +2503,11 @@
     <row r="270" spans="1:1">
       <c r="A270" t="s">
         <v>226</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -2525,14 +2533,14 @@
     <col customWidth="1" max="1" min="1" width="25"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="19" r="1" spans="1:1">
+    <row customHeight="1" ht="18.95" r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/report.xlsx
+++ b/report.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="229">
-  <si>
-    <t>January 2017</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="230">
+  <si>
+    <t>February 2017</t>
   </si>
   <si>
     <t>saeccffrgeaa Gary Tsai 2016-08-26 16:50:26.807392</t>
@@ -696,6 +696,9 @@
   </si>
   <si>
     <t xml:space="preserve">31 18:57&gt;&gt;&gt; 8FD8ADBD20    </t>
+  </si>
+  <si>
+    <t>14 17:22&gt;&gt;&gt; 4FD889D140   Freddy Velez</t>
   </si>
   <si>
     <t>Month</t>
@@ -769,8 +772,8 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
@@ -789,25 +792,25 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="5"/>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle name="Normal 17" xfId="1"/>
-    <cellStyle name="Normal 5" xfId="2"/>
-    <cellStyle name="Normal 12" xfId="3"/>
-    <cellStyle name="Normal 11" xfId="4"/>
-    <cellStyle name="Normal 10" xfId="5"/>
-    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="6"/>
-    <cellStyle name="Normal 6" xfId="7"/>
-    <cellStyle name="Normal 13" xfId="8"/>
-    <cellStyle name="Normal 4" xfId="9"/>
-    <cellStyle name="Normal 8" xfId="10"/>
-    <cellStyle name="Normal 3" xfId="11"/>
-    <cellStyle name="Normal 2" xfId="12"/>
-    <cellStyle name="Normal 14" xfId="13"/>
-    <cellStyle name="Normal 15" xfId="14"/>
-    <cellStyle name="Normal 16" xfId="15"/>
-    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="16"/>
-    <cellStyle name="Normal 9" xfId="17"/>
-    <cellStyle name="Normal 7" xfId="18"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 7" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="3"/>
+    <cellStyle name="Normal 16" xfId="4"/>
+    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="5"/>
+    <cellStyle name="Normal 3" xfId="6"/>
+    <cellStyle name="Normal 11" xfId="7"/>
+    <cellStyle name="Normal 10" xfId="8"/>
+    <cellStyle name="Normal 13" xfId="9"/>
+    <cellStyle name="Normal 12" xfId="10"/>
+    <cellStyle name="Normal 5" xfId="11"/>
+    <cellStyle name="Normal 4" xfId="12"/>
+    <cellStyle name="Normal 17" xfId="13"/>
+    <cellStyle name="Normal 6" xfId="14"/>
+    <cellStyle name="Normal 9" xfId="15"/>
+    <cellStyle name="Normal 8" xfId="16"/>
+    <cellStyle name="Normal 15" xfId="17"/>
+    <cellStyle name="Normal 14" xfId="18"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
@@ -1140,7 +1143,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A270"/>
+  <dimension ref="A1:A271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2500,6 +2503,11 @@
     <row r="270" spans="1:1">
       <c r="A270" t="s">
         <v>226</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -2527,12 +2535,12 @@
   <sheetData>
     <row customHeight="1" ht="19" r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/report.xlsx
+++ b/report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="233">
   <si>
     <t>February 2017</t>
   </si>
@@ -699,6 +699,15 @@
   </si>
   <si>
     <t>14 17:22&gt;&gt;&gt; 4FD889D140   Freddy Velez</t>
+  </si>
+  <si>
+    <t>14 17:26&gt;&gt;&gt; 4FD889D140   Freddy Velez</t>
+  </si>
+  <si>
+    <t>15 14:46&gt;&gt;&gt; CFD89370C0   John Tomanelli</t>
+  </si>
+  <si>
+    <t>15 14:47&gt;&gt;&gt; CFD89370C0   John Tomanelli</t>
   </si>
   <si>
     <t>Month</t>
@@ -771,8 +780,8 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
@@ -794,23 +803,23 @@
   <cellStyles count="19">
     <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 7" xfId="2"/>
-    <cellStyle builtinId="0" name="Normal" xfId="3"/>
-    <cellStyle name="Normal 16" xfId="4"/>
-    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="5"/>
-    <cellStyle name="Normal 3" xfId="6"/>
+    <cellStyle name="Normal 6" xfId="2"/>
+    <cellStyle name="Normal 17" xfId="3"/>
+    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="4"/>
+    <cellStyle builtinId="0" name="Normal" xfId="5"/>
+    <cellStyle name="Normal 13" xfId="6"/>
     <cellStyle name="Normal 11" xfId="7"/>
     <cellStyle name="Normal 10" xfId="8"/>
-    <cellStyle name="Normal 13" xfId="9"/>
+    <cellStyle name="Normal 3" xfId="9"/>
     <cellStyle name="Normal 12" xfId="10"/>
     <cellStyle name="Normal 5" xfId="11"/>
-    <cellStyle name="Normal 4" xfId="12"/>
-    <cellStyle name="Normal 17" xfId="13"/>
-    <cellStyle name="Normal 6" xfId="14"/>
+    <cellStyle name="Normal 14" xfId="12"/>
+    <cellStyle name="Normal 7" xfId="13"/>
+    <cellStyle name="Normal 16" xfId="14"/>
     <cellStyle name="Normal 9" xfId="15"/>
     <cellStyle name="Normal 8" xfId="16"/>
     <cellStyle name="Normal 15" xfId="17"/>
-    <cellStyle name="Normal 14" xfId="18"/>
+    <cellStyle name="Normal 4" xfId="18"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
@@ -1143,7 +1152,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A271"/>
+  <dimension ref="A1:A274"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2508,6 +2517,21 @@
     <row r="271" spans="1:1">
       <c r="A271" t="s">
         <v>227</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -2535,12 +2559,12 @@
   <sheetData>
     <row customHeight="1" ht="19" r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>

--- a/report.xlsx
+++ b/report.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr codeName="ThisWorkbook"/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-    <s:sheet name="Monthly_STAT" sheetId="2" r:id="rId2"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr codeName="ThisWorkbook"/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Monthly_STAT" sheetId="2" state="visible" r:id="rId2"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="239">
   <si>
     <t>February 2017</t>
   </si>
@@ -708,6 +708,24 @@
   </si>
   <si>
     <t>15 14:47&gt;&gt;&gt; CFD89370C0   John Tomanelli</t>
+  </si>
+  <si>
+    <t>15 15:03&gt;&gt;&gt; 4FD889D140   Freddy Velez</t>
+  </si>
+  <si>
+    <t>18 14:33&gt;&gt;&gt; 4FD889D140   Freddy Velez</t>
+  </si>
+  <si>
+    <t>18 14:35&gt;&gt;&gt; 4FD889D140   Freddy Velez</t>
+  </si>
+  <si>
+    <t>18 14:37&gt;&gt;&gt; 4FD889D140   Freddy Velez</t>
+  </si>
+  <si>
+    <t>18 14:38&gt;&gt;&gt; 4FD889D140   Freddy Velez</t>
+  </si>
+  <si>
+    <t>18 14:41&gt;&gt;&gt; 4FD889D140   Freddy Velez</t>
   </si>
   <si>
     <t>Month</t>
@@ -776,52 +794,51 @@
     </border>
   </borders>
   <cellStyleXfs count="19">
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="5"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 6" xfId="2"/>
-    <cellStyle name="Normal 17" xfId="3"/>
-    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="4"/>
-    <cellStyle builtinId="0" name="Normal" xfId="5"/>
-    <cellStyle name="Normal 13" xfId="6"/>
+    <cellStyle name="Normal 7" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="3"/>
+    <cellStyle name="Normal 16" xfId="4"/>
+    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="5"/>
+    <cellStyle name="Normal 3" xfId="6"/>
     <cellStyle name="Normal 11" xfId="7"/>
     <cellStyle name="Normal 10" xfId="8"/>
-    <cellStyle name="Normal 3" xfId="9"/>
+    <cellStyle name="Normal 13" xfId="9"/>
     <cellStyle name="Normal 12" xfId="10"/>
     <cellStyle name="Normal 5" xfId="11"/>
-    <cellStyle name="Normal 14" xfId="12"/>
-    <cellStyle name="Normal 7" xfId="13"/>
-    <cellStyle name="Normal 16" xfId="14"/>
+    <cellStyle name="Normal 4" xfId="12"/>
+    <cellStyle name="Normal 17" xfId="13"/>
+    <cellStyle name="Normal 6" xfId="14"/>
     <cellStyle name="Normal 9" xfId="15"/>
     <cellStyle name="Normal 8" xfId="16"/>
     <cellStyle name="Normal 15" xfId="17"/>
-    <cellStyle name="Normal 4" xfId="18"/>
+    <cellStyle name="Normal 14" xfId="18"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -1152,13 +1169,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A274"/>
+  <dimension ref="A1:A285"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" width="50"/>
     <col customWidth="1" max="3" min="3" width="30"/>
@@ -2532,6 +2549,61 @@
     <row r="274" spans="1:1">
       <c r="A274" t="s">
         <v>230</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -2552,19 +2624,19 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" width="25"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="19" r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
